--- a/biology/Zoologie/Androctonus_bicolor/Androctonus_bicolor.xlsx
+++ b/biology/Zoologie/Androctonus_bicolor/Androctonus_bicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Androctonus bicolor est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Égypte et en Israël[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Égypte et en Israël.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 56 à 62 mm et les femelles de 64 à 81 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 56 à 62 mm et les femelles de 64 à 81 mm.
 Ce scorpion est de couleur foncée, allant du brun chocolat au noir. Il possède de longues pinces fines, dont l'extrémité est plus claire que le reste du corps. La queue est à la fois longue et large, et le telson très apparent bien que relativement fin.
 La durée de gestation est de 4 à 7 mois et la taille d'une portée varie de 30 à 100 individus.
 Il y a 7 à 9 stades avant l'âge adulte.
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hemprich &amp; Ehrenberg, 1828 : Zoologica II. Arachnoidea. Symbolae physicae seu icones et descriptiones animalium evertebratorum sepositis insectis quae ex itinere per Africam borealem et Asiam occidentalem. Berolini, Officina Academica, (texte intégral).</t>
         </is>
